--- a/week-2/Solutions/2-2-A-building-charts-solutions.xlsx
+++ b/week-2/Solutions/2-2-A-building-charts-solutions.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E0DBB1-0A12-420E-8753-0724A68C2789}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DBECB1-7556-47F5-8B2E-9BF4DEFE9DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="applicants" sheetId="1" r:id="rId2"/>
-    <sheet name="trend-over-time" sheetId="4" r:id="rId3"/>
-    <sheet name="m-f-trend-over-time" sheetId="6" r:id="rId4"/>
-    <sheet name="15-16-17-m-f" sheetId="5" r:id="rId5"/>
+    <sheet name="ssn-1" sheetId="4" r:id="rId3"/>
+    <sheet name="ssn-2" sheetId="6" r:id="rId4"/>
+    <sheet name="ssn-3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="16">
   <si>
     <t>year</t>
   </si>
@@ -63,6 +71,18 @@
   </si>
   <si>
     <t>(Multiple Items)</t>
+  </si>
+  <si>
+    <t>Using charts, explore the following:</t>
+  </si>
+  <si>
+    <t>1. Trend of total applications over time</t>
+  </si>
+  <si>
+    <t>2. Trend of total applications over time, split between male and female</t>
+  </si>
+  <si>
+    <t>3. Total number of male versus female applications since 2015</t>
   </si>
 </sst>
 </file>
@@ -636,7 +656,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2-2-A-building-charts-solutions.xlsx]trend-over-time!PivotTable1</c:name>
+    <c:name>[2-2-A-building-charts-solutions.xlsx]ssn-1!PivotTable1</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -739,7 +759,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'trend-over-time'!$B$3</c:f>
+              <c:f>'ssn-1'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -762,7 +782,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'trend-over-time'!$A$4:$A$142</c:f>
+              <c:f>'ssn-1'!$A$4:$A$142</c:f>
               <c:strCache>
                 <c:ptCount val="138"/>
                 <c:pt idx="0">
@@ -1184,7 +1204,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'trend-over-time'!$B$4:$B$142</c:f>
+              <c:f>'ssn-1'!$B$4:$B$142</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="138"/>
@@ -1837,7 +1857,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2-2-A-building-charts-solutions.xlsx]m-f-trend-over-time!PivotTable3</c:name>
+    <c:name>[2-2-A-building-charts-solutions.xlsx]ssn-2!PivotTable3</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -1966,7 +1986,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'m-f-trend-over-time'!$B$3:$B$4</c:f>
+              <c:f>'ssn-2'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1989,7 +2009,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'m-f-trend-over-time'!$A$5:$A$143</c:f>
+              <c:f>'ssn-2'!$A$5:$A$143</c:f>
               <c:strCache>
                 <c:ptCount val="138"/>
                 <c:pt idx="0">
@@ -2411,7 +2431,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'m-f-trend-over-time'!$B$5:$B$143</c:f>
+              <c:f>'ssn-2'!$B$5:$B$143</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="138"/>
@@ -2844,7 +2864,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'m-f-trend-over-time'!$C$3:$C$4</c:f>
+              <c:f>'ssn-2'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2867,7 +2887,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'m-f-trend-over-time'!$A$5:$A$143</c:f>
+              <c:f>'ssn-2'!$A$5:$A$143</c:f>
               <c:strCache>
                 <c:ptCount val="138"/>
                 <c:pt idx="0">
@@ -3289,7 +3309,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'m-f-trend-over-time'!$C$5:$C$143</c:f>
+              <c:f>'ssn-2'!$C$5:$C$143</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="138"/>
@@ -3927,7 +3947,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[2-2-A-building-charts-solutions.xlsx]15-16-17-m-f!PivotTable2</c:name>
+    <c:name>[2-2-A-building-charts-solutions.xlsx]ssn-3!PivotTable2</c:name>
     <c:fmtId val="0"/>
   </c:pivotSource>
   <c:chart>
@@ -4057,7 +4077,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15-16-17-m-f'!$B$3:$B$4</c:f>
+              <c:f>'ssn-3'!$B$3:$B$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4078,7 +4098,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'15-16-17-m-f'!$A$5</c:f>
+              <c:f>'ssn-3'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4089,7 +4109,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15-16-17-m-f'!$B$5</c:f>
+              <c:f>'ssn-3'!$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -4110,7 +4130,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'15-16-17-m-f'!$C$3:$C$4</c:f>
+              <c:f>'ssn-3'!$C$3:$C$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4131,7 +4151,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'15-16-17-m-f'!$A$5</c:f>
+              <c:f>'ssn-3'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4142,7 +4162,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'15-16-17-m-f'!$C$5</c:f>
+              <c:f>'ssn-3'!$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
@@ -7700,7 +7720,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B142" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8301,7 +8321,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable3" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8934,7 +8954,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -9451,9 +9471,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9478,16 +9496,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C277"/>
+  <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9498,7 +9517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1880</v>
       </c>
@@ -9508,8 +9527,11 @@
       <c r="C2">
         <v>97605</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1880</v>
       </c>
@@ -9519,8 +9541,11 @@
       <c r="C3">
         <v>118400</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1881</v>
       </c>
@@ -9530,8 +9555,11 @@
       <c r="C4">
         <v>98855</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1881</v>
       </c>
@@ -9541,8 +9569,11 @@
       <c r="C5">
         <v>108282</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1882</v>
       </c>
@@ -9553,7 +9584,7 @@
         <v>115695</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1882</v>
       </c>
@@ -9564,7 +9595,7 @@
         <v>122031</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1883</v>
       </c>
@@ -9575,7 +9606,7 @@
         <v>120059</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1883</v>
       </c>
@@ -9586,7 +9617,7 @@
         <v>112477</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1884</v>
       </c>
@@ -9597,7 +9628,7 @@
         <v>137586</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1884</v>
       </c>
@@ -9608,7 +9639,7 @@
         <v>122738</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1885</v>
       </c>
@@ -9619,7 +9650,7 @@
         <v>141948</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1885</v>
       </c>
@@ -9630,7 +9661,7 @@
         <v>115945</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1886</v>
       </c>
@@ -9641,7 +9672,7 @@
         <v>153735</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1886</v>
       </c>
@@ -9652,7 +9683,7 @@
         <v>119041</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1887</v>
       </c>

--- a/week-2/Solutions/2-2-A-building-charts-solutions.xlsx
+++ b/week-2/Solutions/2-2-A-building-charts-solutions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\data-analytics-lectures\week-2\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\data-analytics-lectures\week-2\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DBECB1-7556-47F5-8B2E-9BF4DEFE9DBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="18240"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="ssn-2" sheetId="6" r:id="rId4"/>
     <sheet name="ssn-3" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
@@ -55,9 +54,6 @@
     <t xml:space="preserve">Data source: </t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.rdocumentation.org/packages/babynames/versions/1.0.0 </t>
-  </si>
-  <si>
     <t>Row Labels</t>
   </si>
   <si>
@@ -84,11 +80,14 @@
   <si>
     <t>3. Total number of male versus female applications since 2015</t>
   </si>
+  <si>
+    <t>https://www.ssa.gov/oact/babynames/numberUSbirths.html</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -661,6 +660,7 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -706,47 +706,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1761,6 +1720,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1877,47 +1837,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -1933,47 +1852,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -3852,6 +3730,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3967,47 +3846,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
@@ -4023,47 +3861,6 @@
         <c:marker>
           <c:symbol val="none"/>
         </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -4246,6 +4043,7 @@
         <c:axId val="663422384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -4308,6 +4106,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6169,7 +5968,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="User" refreshedDate="43746.402477430558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="276" xr:uid="{00000000-000A-0000-FFFF-FFFF1F000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="User" refreshedDate="43746.402477430558" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="276">
   <cacheSource type="worksheet">
     <worksheetSource name="applicants"/>
   </cacheSource>
@@ -7720,7 +7519,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B142" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8321,7 +8120,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:D143" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="3">
     <pivotField axis="axisRow" showAll="0">
@@ -8954,7 +8753,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:D5" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="3">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -9195,12 +8994,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="applicants" displayName="applicants" ref="A1:C277" totalsRowShown="0">
-  <autoFilter ref="A1:C277" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="applicants" displayName="applicants" ref="A1:C277" totalsRowShown="0">
+  <autoFilter ref="A1:C277"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="year"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="sex"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="n_all"/>
+    <tableColumn id="1" name="year"/>
+    <tableColumn id="2" name="sex"/>
+    <tableColumn id="3" name="n_all"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9468,7 +9267,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -9483,25 +9282,22 @@
         <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B20" sqref="B20"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2:E5"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9528,7 +9324,7 @@
         <v>97605</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9542,7 +9338,7 @@
         <v>118400</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9556,7 +9352,7 @@
         <v>98855</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9570,7 +9366,7 @@
         <v>108282</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -12574,11 +12370,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12589,10 +12385,10 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -13701,7 +13497,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B142" s="4">
         <v>365340455</v>
@@ -13714,7 +13510,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13731,15 +13527,15 @@
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -13748,7 +13544,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -15685,7 +15481,7 @@
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B143" s="4">
         <v>182663155</v>
@@ -15704,11 +15500,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15724,12 +15520,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -15740,12 +15536,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="4">
         <v>5748654</v>
